--- a/Outputs/combined_pressure_table_with_extraction.xlsx
+++ b/Outputs/combined_pressure_table_with_extraction.xlsx
@@ -441,32 +441,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>3 ft</t>
+          <t>1 m</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>6 ft</t>
+          <t>2 m</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>10 ft</t>
+          <t>3 m</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>13 ft</t>
+          <t>4 m</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>16 ft</t>
+          <t>5 m</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>20 ft</t>
+          <t>6 m</t>
         </is>
       </c>
     </row>
@@ -475,22 +475,22 @@
         <v>4.2e-05</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03704942191202498</v>
+        <v>0.2554468722221515</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04611106107014962</v>
+        <v>0.3179246994240259</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03870350744951878</v>
+        <v>0.2668513950226412</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07173759890586595</v>
+        <v>0.4946135274322216</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07482289431237632</v>
+        <v>0.5158858987892359</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1294448818731411</v>
+        <v>0.8924913937436827</v>
       </c>
     </row>
     <row r="3">
@@ -498,22 +498,22 @@
         <v>0.0051723</v>
       </c>
       <c r="B3" t="n">
-        <v>4.562636308465713</v>
+        <v>31.4582823141571</v>
       </c>
       <c r="C3" t="n">
-        <v>5.678577170788856</v>
+        <v>39.15242673406826</v>
       </c>
       <c r="D3" t="n">
-        <v>4.766336942408129</v>
+        <v>32.86274929703791</v>
       </c>
       <c r="E3" t="n">
-        <v>8.834485305257529</v>
+        <v>60.91165590327742</v>
       </c>
       <c r="F3" t="n">
-        <v>9.214439434569684</v>
+        <v>63.53134843589368</v>
       </c>
       <c r="G3" t="n">
-        <v>15.94113720267754</v>
+        <v>109.910315139533</v>
       </c>
     </row>
     <row r="4">
@@ -521,22 +521,22 @@
         <v>0.010387097</v>
       </c>
       <c r="B4" t="n">
-        <v>9.16276045700274</v>
+        <v>63.1750342885243</v>
       </c>
       <c r="C4" t="n">
-        <v>11.40381105020385</v>
+        <v>78.6265402765037</v>
       </c>
       <c r="D4" t="n">
-        <v>9.571835383770594</v>
+        <v>65.99550773060619</v>
       </c>
       <c r="E4" t="n">
-        <v>17.7415571043413</v>
+        <v>122.3237782607283</v>
       </c>
       <c r="F4" t="n">
-        <v>18.5045871677011</v>
+        <v>127.5846874203789</v>
       </c>
       <c r="G4" t="n">
-        <v>32.01325105166372</v>
+        <v>220.7236828209689</v>
       </c>
     </row>
     <row r="5">
@@ -544,22 +544,22 @@
         <v>0.021225806</v>
       </c>
       <c r="B5" t="n">
-        <v>18.72390099801816</v>
+        <v>129.0968036450959</v>
       </c>
       <c r="C5" t="n">
-        <v>23.30343896974133</v>
+        <v>160.6716188710141</v>
       </c>
       <c r="D5" t="n">
-        <v>19.55983668197671</v>
+        <v>134.8603795614258</v>
       </c>
       <c r="E5" t="n">
-        <v>36.25448469718444</v>
+        <v>249.9659709107594</v>
       </c>
       <c r="F5" t="n">
-        <v>37.81371997697848</v>
+        <v>260.716523948472</v>
       </c>
       <c r="G5" t="n">
-        <v>65.4183797698154</v>
+        <v>451.0440281017326</v>
       </c>
     </row>
     <row r="6">
@@ -567,22 +567,22 @@
         <v>0.03116129</v>
       </c>
       <c r="B6" t="n">
-        <v>26.95180684978554</v>
+        <v>185.8262397956274</v>
       </c>
       <c r="C6" t="n">
-        <v>34.21143205272912</v>
+        <v>235.879613259875</v>
       </c>
       <c r="D6" t="n">
-        <v>27.98947278375239</v>
+        <v>192.9806973705047</v>
       </c>
       <c r="E6" t="n">
-        <v>50.43064307793698</v>
+        <v>347.7071806680369</v>
       </c>
       <c r="F6" t="n">
-        <v>55.51375972160584</v>
+        <v>382.7540499781389</v>
       </c>
       <c r="G6" t="n">
-        <v>94.9770282236346</v>
+        <v>654.843815115187</v>
       </c>
     </row>
     <row r="7">
@@ -590,22 +590,22 @@
         <v>0.042451613</v>
       </c>
       <c r="B7" t="n">
-        <v>34.9279341441925</v>
+        <v>240.8197232200127</v>
       </c>
       <c r="C7" t="n">
-        <v>45.03611321565923</v>
+        <v>310.5131919547989</v>
       </c>
       <c r="D7" t="n">
-        <v>35.81143458811557</v>
+        <v>246.9112467407556</v>
       </c>
       <c r="E7" t="n">
-        <v>63.69617069273727</v>
+        <v>439.1698098454573</v>
       </c>
       <c r="F7" t="n">
-        <v>74.68749773904456</v>
+        <v>514.9523719112548</v>
       </c>
       <c r="G7" t="n">
-        <v>124.2568764619471</v>
+        <v>856.721341554774</v>
       </c>
     </row>
     <row r="8">
@@ -613,22 +613,22 @@
         <v>0.06277419400000001</v>
       </c>
       <c r="B8" t="n">
-        <v>47.06415701150222</v>
+        <v>324.4960671966251</v>
       </c>
       <c r="C8" t="n">
-        <v>60.37108537373761</v>
+        <v>416.2441445914312</v>
       </c>
       <c r="D8" t="n">
-        <v>48.09026834270939</v>
+        <v>331.5708585585788</v>
       </c>
       <c r="E8" t="n">
-        <v>85.41919696931224</v>
+        <v>588.9448624961353</v>
       </c>
       <c r="F8" t="n">
-        <v>106.8973296460198</v>
+        <v>737.0314325501913</v>
       </c>
       <c r="G8" t="n">
-        <v>164.0849948141116</v>
+        <v>1131.326658844544</v>
       </c>
     </row>
     <row r="9">
@@ -636,22 +636,22 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="B9" t="n">
-        <v>57.12532918377005</v>
+        <v>393.8654346430904</v>
       </c>
       <c r="C9" t="n">
-        <v>71.15161686778499</v>
+        <v>490.5733219153292</v>
       </c>
       <c r="D9" t="n">
-        <v>57.36275568740985</v>
+        <v>395.5024334033259</v>
       </c>
       <c r="E9" t="n">
-        <v>100.3832000506518</v>
+        <v>692.1180723812322</v>
       </c>
       <c r="F9" t="n">
-        <v>129.9376435137995</v>
+        <v>895.8888669932046</v>
       </c>
       <c r="G9" t="n">
-        <v>189.8584187226985</v>
+        <v>1309.028231072513</v>
       </c>
     </row>
     <row r="10">
@@ -659,22 +659,22 @@
         <v>0.127354839</v>
       </c>
       <c r="B10" t="n">
-        <v>68.3335842778186</v>
+        <v>471.1436635353326</v>
       </c>
       <c r="C10" t="n">
-        <v>84.33603277681115</v>
+        <v>581.4767053482464</v>
       </c>
       <c r="D10" t="n">
-        <v>69.03616510762117</v>
+        <v>475.987789737422</v>
       </c>
       <c r="E10" t="n">
-        <v>120.6595686003043</v>
+        <v>831.9187672026341</v>
       </c>
       <c r="F10" t="n">
-        <v>160.3651948150363</v>
+        <v>1105.679530602919</v>
       </c>
       <c r="G10" t="n">
-        <v>215.9826906551209</v>
+        <v>1489.148816221302</v>
       </c>
     </row>
     <row r="11">
@@ -682,22 +682,22 @@
         <v>0.169806452</v>
       </c>
       <c r="B11" t="n">
-        <v>75.328167433215</v>
+        <v>518.5050876299728</v>
       </c>
       <c r="C11" t="n">
-        <v>91.71133107632068</v>
+        <v>631.6721127175891</v>
       </c>
       <c r="D11" t="n">
-        <v>77.88792566650419</v>
+        <v>537.0185543683862</v>
       </c>
       <c r="E11" t="n">
-        <v>133.2977524271789</v>
+        <v>919.0560115248161</v>
       </c>
       <c r="F11" t="n">
-        <v>180.5462621084154</v>
+        <v>1244.823146134618</v>
       </c>
       <c r="G11" t="n">
-        <v>236.7899091181999</v>
+        <v>1632.208229199792</v>
       </c>
     </row>
     <row r="12">
@@ -705,22 +705,22 @@
         <v>0.210451613</v>
       </c>
       <c r="B12" t="n">
-        <v>79.43709826664447</v>
+        <v>547.0737173352181</v>
       </c>
       <c r="C12" t="n">
-        <v>95.81818554419453</v>
+        <v>660.176098253973</v>
       </c>
       <c r="D12" t="n">
-        <v>80.2131165387573</v>
+        <v>552.3888323455659</v>
       </c>
       <c r="E12" t="n">
-        <v>139.1161011743982</v>
+        <v>958.7547627288418</v>
       </c>
       <c r="F12" t="n">
-        <v>190.7010716670133</v>
+        <v>1314.187740097704</v>
       </c>
       <c r="G12" t="n">
-        <v>246.0988650882505</v>
+        <v>1696.507248943583</v>
       </c>
     </row>
     <row r="13">
@@ -728,22 +728,22 @@
         <v>0.252903226</v>
       </c>
       <c r="B13" t="n">
-        <v>82.18738701054465</v>
+        <v>566.1959619984024</v>
       </c>
       <c r="C13" t="n">
-        <v>98.5026040499892</v>
+        <v>678.8075415742308</v>
       </c>
       <c r="D13" t="n">
-        <v>82.96473994516778</v>
+        <v>571.528843306044</v>
       </c>
       <c r="E13" t="n">
-        <v>143.6079233146582</v>
+        <v>989.8311018153031</v>
       </c>
       <c r="F13" t="n">
-        <v>198.0652931480631</v>
+        <v>1365.126984236036</v>
       </c>
       <c r="G13" t="n">
-        <v>252.1617138285945</v>
+        <v>1738.384686287113</v>
       </c>
     </row>
     <row r="14">
@@ -751,22 +751,22 @@
         <v>0.294</v>
       </c>
       <c r="B14" t="n">
-        <v>83.97431592338171</v>
+        <v>578.6201454376978</v>
       </c>
       <c r="C14" t="n">
-        <v>100.219569430606</v>
+        <v>690.724291178414</v>
       </c>
       <c r="D14" t="n">
-        <v>84.75453631811482</v>
+        <v>583.9784836599848</v>
       </c>
       <c r="E14" t="n">
-        <v>146.5281082489307</v>
+        <v>1010.034185192959</v>
       </c>
       <c r="F14" t="n">
-        <v>202.8738552268779</v>
+        <v>1398.388411557707</v>
       </c>
       <c r="G14" t="n">
-        <v>256.0196052255613</v>
+        <v>1765.031995060891</v>
       </c>
     </row>
     <row r="15">
@@ -774,22 +774,22 @@
         <v>0.336</v>
       </c>
       <c r="B15" t="n">
-        <v>85.25567724103961</v>
+        <v>587.529211684085</v>
       </c>
       <c r="C15" t="n">
-        <v>101.4373504934448</v>
+        <v>699.1764080124246</v>
       </c>
       <c r="D15" t="n">
-        <v>86.03937787541645</v>
+        <v>592.9157099370049</v>
       </c>
       <c r="E15" t="n">
-        <v>148.6242546387883</v>
+        <v>1024.536218879426</v>
       </c>
       <c r="F15" t="n">
-        <v>206.3342850533417</v>
+        <v>1422.324638906258</v>
       </c>
       <c r="G15" t="n">
-        <v>258.7523178794594</v>
+        <v>1783.907445286432</v>
       </c>
     </row>
     <row r="16">
@@ -797,22 +797,22 @@
         <v>0.378451613</v>
       </c>
       <c r="B16" t="n">
-        <v>86.19286888050402</v>
+        <v>594.0453303512243</v>
       </c>
       <c r="C16" t="n">
-        <v>102.3193447741094</v>
+        <v>705.2979670791462</v>
       </c>
       <c r="D16" t="n">
-        <v>86.97923104804659</v>
+        <v>599.4532323074844</v>
       </c>
       <c r="E16" t="n">
-        <v>150.1571754510772</v>
+        <v>1035.141618085617</v>
       </c>
       <c r="F16" t="n">
-        <v>208.8687334632745</v>
+        <v>1439.855736594015</v>
       </c>
       <c r="G16" t="n">
-        <v>260.7282960985149</v>
+        <v>1797.555963420539</v>
       </c>
     </row>
     <row r="17">
@@ -820,22 +820,22 @@
         <v>0.42</v>
       </c>
       <c r="B17" t="n">
-        <v>86.8774810456302</v>
+        <v>598.805311043538</v>
       </c>
       <c r="C17" t="n">
-        <v>102.958530540178</v>
+        <v>709.7342922426373</v>
       </c>
       <c r="D17" t="n">
-        <v>87.66605720563403</v>
+        <v>604.2307246669604</v>
       </c>
       <c r="E17" t="n">
-        <v>151.2767711472715</v>
+        <v>1042.887458061632</v>
       </c>
       <c r="F17" t="n">
-        <v>210.721379582352</v>
+        <v>1452.67072227754</v>
       </c>
       <c r="G17" t="n">
-        <v>262.1585479370927</v>
+        <v>1807.435028812079</v>
       </c>
     </row>
   </sheetData>
